--- a/n of 1/Others n of 1/VO2max_Others/FASTER43_Damian_Stoy_VO2max/FASTER43_VO2max_Data.xlsx
+++ b/n of 1/Others n of 1/VO2max_Others/FASTER43_Damian_Stoy_VO2max/FASTER43_VO2max_Data.xlsx
@@ -136,7 +136,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b val="true"/>
+      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -268,7 +269,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -306,7 +307,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart96.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -817,11 +818,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="81923107"/>
-        <c:axId val="89132276"/>
+        <c:axId val="52100906"/>
+        <c:axId val="16961349"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81923107"/>
+        <c:axId val="52100906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -874,12 +875,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89132276"/>
+        <c:crossAx val="16961349"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89132276"/>
+        <c:axId val="16961349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +932,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81923107"/>
+        <c:crossAx val="52100906"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -994,7 +995,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart97.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1006,12 +1007,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>%VO2max vs Fat Oxidation (g/min)</a:t>
@@ -1184,16 +1185,34 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="10738659"/>
-        <c:axId val="90267131"/>
+        <c:axId val="88344994"/>
+        <c:axId val="89712345"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10738659"/>
+        <c:axId val="88344994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="dddddd"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1238,12 +1257,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90267131"/>
+        <c:crossAx val="89712345"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90267131"/>
+        <c:axId val="89712345"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,6 +1277,15 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="dddddd"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1302,7 +1330,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10738659"/>
+        <c:crossAx val="88344994"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1405,8 +1433,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>420840</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1415,7 +1443,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1260360" y="36000"/>
-        <a:ext cx="10791000" cy="6069600"/>
+        <a:ext cx="10791000" cy="7707240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3361,8 +3389,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L37" activeCellId="0" sqref="L37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/n of 1/Others n of 1/VO2max_Others/FASTER43_Damian_Stoy_VO2max/FASTER43_VO2max_Data.xlsx
+++ b/n of 1/Others n of 1/VO2max_Others/FASTER43_Damian_Stoy_VO2max/FASTER43_VO2max_Data.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RAW" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CHO-FAT_VO2max" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="PercVO2max_vs_FatOxi" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="RAW" sheetId="1" r:id="rId1"/>
+    <sheet name="CHO-FAT_VO2max" sheetId="2" r:id="rId2"/>
+    <sheet name="PercVO2max_vs_FatOxi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,76 +21,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
-    <t xml:space="preserve">Time</t>
+    <t>Time</t>
   </si>
   <si>
-    <t xml:space="preserve">VO2/kg</t>
+    <t>VO2/kg</t>
   </si>
   <si>
-    <t xml:space="preserve">METS</t>
+    <t>METS</t>
   </si>
   <si>
-    <t xml:space="preserve">VCO2</t>
+    <t>VCO2</t>
   </si>
   <si>
-    <t xml:space="preserve">VE</t>
+    <t>VE</t>
   </si>
   <si>
-    <t xml:space="preserve">RER</t>
+    <t>RER</t>
   </si>
   <si>
-    <t xml:space="preserve">RR</t>
+    <t>RR</t>
   </si>
   <si>
-    <t xml:space="preserve">FEO2</t>
+    <t>FEO2</t>
   </si>
   <si>
-    <t xml:space="preserve">FECO2</t>
+    <t>FECO2</t>
   </si>
   <si>
-    <t xml:space="preserve">REE</t>
+    <t>REE</t>
   </si>
   <si>
-    <t xml:space="preserve">%FAT</t>
+    <t>%FAT</t>
   </si>
   <si>
-    <t xml:space="preserve">FATmin</t>
+    <t>FATmin</t>
   </si>
   <si>
-    <t xml:space="preserve">%CHO</t>
+    <t>%CHO</t>
   </si>
   <si>
-    <t xml:space="preserve">CHOmin</t>
+    <t>CHOmin</t>
   </si>
   <si>
-    <t xml:space="preserve">%VO2max</t>
+    <t>%VO2max</t>
   </si>
   <si>
-    <t xml:space="preserve">VO2max</t>
+    <t>VO2max</t>
   </si>
   <si>
-    <t xml:space="preserve">Fat Ox
+    <t>Fat Ox
 (kcal/min)</t>
   </si>
   <si>
-    <t xml:space="preserve">CHO Ox
+    <t>CHO Ox
 (kCal/min)</t>
+  </si>
+  <si>
+    <t>kcal/min</t>
+  </si>
+  <si>
+    <t>mins</t>
+  </si>
+  <si>
+    <t>kcal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="H:MM"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,22 +101,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -123,33 +109,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,7 +131,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -175,75 +139,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -302,17 +222,44 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2737851318470978E-2"/>
+          <c:y val="2.5814329862179065E-2"/>
+          <c:w val="0.89304502537828268"/>
+          <c:h val="0.94837134027564185"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -332,9 +279,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:noFill/>
             </a:ln>
@@ -344,7 +288,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="99ccff"/>
+                <a:srgbClr val="99CCFF"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -355,6 +299,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:trendline>
@@ -368,103 +313,110 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'CHO-FAT_VO2max'!$A$2:$A$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.241324921135647</c:v>
+                  <c:v>0.24132492113564671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.307570977917981</c:v>
+                  <c:v>0.3075709779179811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.364353312302839</c:v>
+                  <c:v>0.36435331230283913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.342271293375394</c:v>
+                  <c:v>0.3422712933753943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.417981072555205</c:v>
+                  <c:v>0.41798107255520506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.438485804416404</c:v>
+                  <c:v>0.43848580441640378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.493690851735016</c:v>
+                  <c:v>0.49369085173501581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.520504731861199</c:v>
+                  <c:v>0.52050473186119872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.523659305993691</c:v>
+                  <c:v>0.52365930599369093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.566246056782334</c:v>
+                  <c:v>0.56624605678233442</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.610410094637224</c:v>
+                  <c:v>0.61041009463722407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.627760252365931</c:v>
+                  <c:v>0.62776025236593058</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.597791798107255</c:v>
+                  <c:v>0.59779179810725547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.714511041009464</c:v>
+                  <c:v>0.71451104100946372</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.668769716088328</c:v>
+                  <c:v>0.66876971608832803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.746056782334385</c:v>
+                  <c:v>0.74605678233438488</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.763406940063092</c:v>
+                  <c:v>0.76340694006309151</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.717665615141956</c:v>
+                  <c:v>0.71766561514195581</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.853312302839117</c:v>
+                  <c:v>0.85331230283911674</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.804416403785489</c:v>
+                  <c:v>0.80441640378548895</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.858044164037855</c:v>
+                  <c:v>0.85804416403785488</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.859621451104101</c:v>
+                  <c:v>0.85962145110410093</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.910094637223975</c:v>
+                  <c:v>0.91009463722397488</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.902208201892744</c:v>
+                  <c:v>0.90220820189274453</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.925867507886435</c:v>
+                  <c:v>0.92586750788643535</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.954258675078864</c:v>
+                  <c:v>0.95425867507886442</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.963722397476341</c:v>
+                  <c:v>0.9637223974763407</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.826498422712934</c:v>
+                  <c:v>0.82649842271293372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,19 +452,19 @@
                   <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.43</c:v>
+                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.52</c:v>
+                  <c:v>2.5200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63</c:v>
+                  <c:v>0.63000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.44</c:v>
@@ -524,19 +476,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.7</c:v>
+                  <c:v>-2.6999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.7</c:v>
+                  <c:v>-2.6999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.23</c:v>
+                  <c:v>-4.2299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.14</c:v>
+                  <c:v>-4.1400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.85</c:v>
+                  <c:v>-5.8500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-6.57</c:v>
@@ -583,9 +535,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:noFill/>
             </a:ln>
@@ -595,7 +544,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="99ccff"/>
+                <a:srgbClr val="99CCFF"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -606,6 +555,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:trendline>
@@ -619,103 +569,110 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'CHO-FAT_VO2max'!$A$2:$A$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.241324921135647</c:v>
+                  <c:v>0.24132492113564671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.307570977917981</c:v>
+                  <c:v>0.3075709779179811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.364353312302839</c:v>
+                  <c:v>0.36435331230283913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.342271293375394</c:v>
+                  <c:v>0.3422712933753943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.417981072555205</c:v>
+                  <c:v>0.41798107255520506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.438485804416404</c:v>
+                  <c:v>0.43848580441640378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.493690851735016</c:v>
+                  <c:v>0.49369085173501581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.520504731861199</c:v>
+                  <c:v>0.52050473186119872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.523659305993691</c:v>
+                  <c:v>0.52365930599369093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.566246056782334</c:v>
+                  <c:v>0.56624605678233442</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.610410094637224</c:v>
+                  <c:v>0.61041009463722407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.627760252365931</c:v>
+                  <c:v>0.62776025236593058</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.597791798107255</c:v>
+                  <c:v>0.59779179810725547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.714511041009464</c:v>
+                  <c:v>0.71451104100946372</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.668769716088328</c:v>
+                  <c:v>0.66876971608832803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.746056782334385</c:v>
+                  <c:v>0.74605678233438488</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.763406940063092</c:v>
+                  <c:v>0.76340694006309151</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.717665615141956</c:v>
+                  <c:v>0.71766561514195581</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.853312302839117</c:v>
+                  <c:v>0.85331230283911674</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.804416403785489</c:v>
+                  <c:v>0.80441640378548895</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.858044164037855</c:v>
+                  <c:v>0.85804416403785488</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.859621451104101</c:v>
+                  <c:v>0.85962145110410093</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.910094637223975</c:v>
+                  <c:v>0.91009463722397488</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.902208201892744</c:v>
+                  <c:v>0.90220820189274453</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.925867507886435</c:v>
+                  <c:v>0.92586750788643535</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.954258675078864</c:v>
+                  <c:v>0.95425867507886442</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.963722397476341</c:v>
+                  <c:v>0.9637223974763407</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.826498422712934</c:v>
+                  <c:v>0.82649842271293372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,7 +687,7 @@
                   <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.48</c:v>
+                  <c:v>4.4800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.4</c:v>
@@ -775,7 +732,7 @@
                   <c:v>13.32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.6</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>15.72</c:v>
@@ -818,11 +775,19 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52100906"/>
-        <c:axId val="16961349"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106946944"/>
+        <c:axId val="106948480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52100906"/>
+        <c:axId val="106946944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -843,7 +808,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="b7b7b7"/>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -866,21 +831,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16961349"/>
+        <c:crossAx val="106948480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16961349"/>
+        <c:axId val="106948480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +866,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="b7b7b7"/>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -923,22 +889,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52100906"/>
+        <c:crossAx val="106946944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -951,16 +918,16 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.566700949918058"/>
-          <c:y val="0.375576192090635"/>
-          <c:w val="0.172384826059575"/>
-          <c:h val="0.29185433717498"/>
+          <c:x val="9.2680249321141717E-2"/>
+          <c:y val="5.2388981648285662E-2"/>
+          <c:w val="0.38748658162021105"/>
+          <c:h val="0.14537380816380335"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -971,34 +938,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="1" sz="1050" spc="-1" strike="noStrike">
+            <a:defRPr sz="1050" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1007,12 +983,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>%VO2max vs Fat Oxidation (g/min)</a:t>
@@ -1020,10 +996,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1042,9 +1020,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -1064,6 +1039,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:trendline>
@@ -1076,58 +1052,60 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>PercVO2max_vs_FatOxi!$A$2:$A$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.241324921135647</c:v>
+                  <c:v>0.24132492113564671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.307570977917981</c:v>
+                  <c:v>0.3075709779179811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.364353312302839</c:v>
+                  <c:v>0.36435331230283913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.342271293375394</c:v>
+                  <c:v>0.3422712933753943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.417981072555205</c:v>
+                  <c:v>0.41798107255520506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.438485804416404</c:v>
+                  <c:v>0.43848580441640378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.493690851735016</c:v>
+                  <c:v>0.49369085173501581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.520504731861199</c:v>
+                  <c:v>0.52050473186119872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.523659305993691</c:v>
+                  <c:v>0.52365930599369093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.566246056782334</c:v>
+                  <c:v>0.56624605678233442</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.610410094637224</c:v>
+                  <c:v>0.61041009463722407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.627760252365931</c:v>
+                  <c:v>0.62776025236593058</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.597791798107255</c:v>
+                  <c:v>0.59779179810725547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.714511041009464</c:v>
+                  <c:v>0.71451104100946372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,13 +1147,13 @@
                   <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.16</c:v>
@@ -1185,11 +1163,19 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="88344994"/>
-        <c:axId val="89712345"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109526016"/>
+        <c:axId val="109532288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88344994"/>
+        <c:axId val="109526016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1185,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1208,7 +1194,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="dddddd"/>
+                <a:srgbClr val="DDDDDD"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1220,12 +1206,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>%VO2max</a:t>
@@ -1233,6 +1219,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
@@ -1242,7 +1229,7 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1251,18 +1238,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89712345"/>
+        <c:crossAx val="109532288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89712345"/>
+        <c:axId val="109532288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1260,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1281,7 +1269,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="dddddd"/>
+                <a:srgbClr val="DDDDDD"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1293,12 +1281,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Fat Oxidation (g/min)</a:t>
@@ -1306,6 +1294,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1315,7 +1304,7 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -1324,13 +1313,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88344994"/>
+        <c:crossAx val="109526016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1338,22 +1328,24 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.651909924937448"/>
-          <c:y val="0.298161328588375"/>
-          <c:w val="0.145487906588824"/>
-          <c:h val="0.0649466192170819"/>
+          <c:x val="0.65190992493744804"/>
+          <c:y val="0.29816132858837502"/>
+          <c:w val="0.14548790658882399"/>
+          <c:h val="6.4946619217081905E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1365,33 +1357,40 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>585720</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4695</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>42840</xdr:rowOff>
     </xdr:from>
@@ -1401,14 +1400,14 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2669040" y="614160"/>
-        <a:ext cx="6718680" cy="5462280"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1422,7 +1421,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1436,14 +1435,14 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1260360" y="36000"/>
-        <a:ext cx="10791000" cy="7707240"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1456,25 +1455,307 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.67"/>
+    <col min="1" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,1439 +1803,1431 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>0.0208333333333333</v>
-      </c>
-      <c r="B2" s="0" t="n">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="B2">
         <v>15.3</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D2">
         <v>0.88</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>25.89</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>0.99</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>18</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>16.61</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>4.32</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>2.5</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>0.02</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>97</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>1.04</v>
       </c>
-      <c r="P2" s="4" t="n">
-        <f aca="false">B2/$B$32</f>
-        <v>0.241324921135647</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>0.0423611111111111</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="P2" s="4">
+        <f t="shared" ref="P2:P30" si="0">B2/$B$32</f>
+        <v>0.24132492113564671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>4.2361111111111099E-2</v>
+      </c>
+      <c r="B3">
         <v>19.5</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>5.6</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>1.08</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>27.08</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>0.95</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>15.74</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>5.01</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>5.6</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>17</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>0.1</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>83</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <f aca="false">B3/$B$32</f>
-        <v>0.307570977917981</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="N3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3075709779179811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B4">
         <v>23.1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>6.6</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E4">
         <v>29.55</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>0.86</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>15.38</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>4.95</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>6.6</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>46</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>0.32</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>54</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>0.85</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <f aca="false">B4/$B$32</f>
-        <v>0.364353312302839</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>0.0840277777777778</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="P4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36435331230283913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>8.4027777777777798E-2</v>
+      </c>
+      <c r="B5">
         <v>21.7</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>6.2</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E5">
         <v>27.98</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>0.89</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>19</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>15.4</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>5.07</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>6.2</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>37</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>0.24</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>64</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5">
         <v>0.94</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <f aca="false">B5/$B$32</f>
-        <v>0.342271293375394</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="P5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3422712933753943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>0.10625</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>26.5</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>7.6</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>1.31</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>32.4</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>0.85</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>23</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>15.16</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="I6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J6">
         <v>7.5</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>0.4</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>51</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>0.94</v>
       </c>
-      <c r="P6" s="4" t="n">
-        <f aca="false">B6/$B$32</f>
-        <v>0.417981072555205</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="P6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41798107255520506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>0.125694444444444</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>27.8</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>7.9</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>1.39</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>33.01</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>0.85</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>14.97</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>5.29</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>7.9</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>48</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>0.4</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>52</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>0.99</v>
       </c>
-      <c r="P7" s="4" t="n">
-        <f aca="false">B7/$B$32</f>
-        <v>0.438485804416404</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="P7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.43848580441640378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>0.147222222222222</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>31.3</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>8.9</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>1.59</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>36.04</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>0.87</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>19</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>14.77</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>5.54</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>8.9</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>43</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>0.4</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>58</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8">
         <v>1.22</v>
       </c>
-      <c r="P8" s="4" t="n">
-        <f aca="false">B8/$B$32</f>
-        <v>0.493690851735016</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>0.168055555555556</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="P8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49369085173501581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.16805555555555601</v>
+      </c>
+      <c r="B9">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>9.4</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>1.73</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>39.52</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="E9">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="F9">
         <v>0.9</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>14.97</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>5.51</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>9.4</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>33</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>0.33</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>67</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>1.52</v>
       </c>
-      <c r="P9" s="4" t="n">
-        <f aca="false">B9/$B$32</f>
-        <v>0.520504731861199</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="P9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52050473186119872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>0.1875</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C10">
         <v>9.5</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>1.78</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>40.96</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>0.92</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>15.12</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>5.46</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>9.5</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>27</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10">
         <v>0.27</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10">
         <v>73</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10">
         <v>1.67</v>
       </c>
-      <c r="P10" s="4" t="n">
-        <f aca="false">B10/$B$32</f>
-        <v>0.523659305993691</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="P10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.52365930599369093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B11">
         <v>35.9</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>10.3</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>1.91</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>41.37</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>0.91</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>18</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>14.71</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>5.81</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>10.3</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>20</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>0.32</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11">
         <v>71</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11">
         <v>1.76</v>
       </c>
-      <c r="P11" s="4" t="n">
-        <f aca="false">B11/$B$32</f>
-        <v>0.566246056782334</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>0.229166666666667</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="P11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.56624605678233442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="B12">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="C12">
         <v>11.1</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>2.1</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>44.59</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>0.93</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>15.49</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>5.92</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>11.1</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>23</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M12" s="0" t="n">
+      <c r="L12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M12">
         <v>77</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12">
         <v>2.06</v>
       </c>
-      <c r="P12" s="4" t="n">
-        <f aca="false">B12/$B$32</f>
-        <v>0.610410094637224</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="P12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61041009463722407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>0.250694444444444</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C13">
         <v>11.4</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>2.23</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>48.16</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>0.96</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>21</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>14.94</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>5.83</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>11.5</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>13</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>0.16</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>88</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13">
         <v>2.42</v>
       </c>
-      <c r="P13" s="4" t="n">
-        <f aca="false">B13/$B$32</f>
-        <v>0.627760252365931</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>0.270833333333333</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="P13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.62776025236593058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="B14">
         <v>37.9</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>10.8</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>2.17</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>46.48</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>0.98</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>19</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>15</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>5.88</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>11</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>6</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="M14" s="0" t="n">
+      <c r="L14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M14">
         <v>95</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>2.5</v>
       </c>
-      <c r="P14" s="4" t="n">
-        <f aca="false">B14/$B$32</f>
-        <v>0.597791798107255</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="P14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.59779179810725547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B15">
         <v>45.3</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>12.9</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E15">
         <v>50.85</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>0.96</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>20</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>14.47</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>6.31</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>13.1</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>12</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>0.16</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>89</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>2.8</v>
       </c>
-      <c r="P15" s="4" t="n">
-        <f aca="false">B15/$B$32</f>
-        <v>0.714511041009464</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="P15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.71451104100946372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>0.313194444444444</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>42.4</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>12.1</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>2.5</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>50.48</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>1.01</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>19</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>14.79</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>6.22</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16">
         <v>12.4</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>-2</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16">
         <v>-0.03</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16">
         <v>103</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16">
         <v>3.07</v>
       </c>
-      <c r="P16" s="4" t="n">
-        <f aca="false">B16/$B$32</f>
-        <v>0.668769716088328</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>0.334722222222222</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="P16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66876971608832803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0.33472222222222198</v>
+      </c>
+      <c r="B17">
         <v>47.3</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>13.5</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>2.77</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>55.81</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>21</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>14.74</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>6.23</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>13.8</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>101</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>3.33</v>
       </c>
-      <c r="P17" s="4" t="n">
-        <f aca="false">B17/$B$32</f>
-        <v>0.746056782334385</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>0.354861111111111</v>
-      </c>
-      <c r="B18" s="0" t="n">
+      <c r="P17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74605678233438488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.35486111111111102</v>
+      </c>
+      <c r="B18">
         <v>48.4</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>13.8</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>3.01</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>63.39</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>1.06</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>23</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>15.28</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>5.96</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>14.3</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>-20</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18">
         <v>-0.3</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18">
         <v>121</v>
       </c>
-      <c r="N18" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="P18" s="4" t="n">
-        <f aca="false">B18/$B$32</f>
-        <v>0.763406940063091</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>0.376388888888889</v>
-      </c>
-      <c r="B19" s="0" t="n">
+      <c r="N18">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.76340694006309151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.37638888888888899</v>
+      </c>
+      <c r="B19">
         <v>45.5</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>13</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>2.83</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>59.41</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>1.07</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>23</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>15.27</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>5.99</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>13.5</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>-21</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19">
         <v>-0.3</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19">
         <v>122</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N19">
         <v>3.93</v>
       </c>
-      <c r="P19" s="4" t="n">
-        <f aca="false">B19/$B$32</f>
-        <v>0.717665615141956</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="B20" s="0" t="n">
+      <c r="P19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.71766561514195581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B20">
         <v>54.1</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>15.5</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>3.44</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>74.39</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="F20">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G20">
         <v>28</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>15.53</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>5.81</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K20" s="0" t="n">
+      <c r="J20">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K20">
         <v>-28</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>-0.47</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20">
         <v>129</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20">
         <v>4.96</v>
       </c>
-      <c r="P20" s="4" t="n">
-        <f aca="false">B20/$B$32</f>
-        <v>0.853312302839117</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>0.417361111111111</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="P20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.85331230283911674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.41736111111111102</v>
+      </c>
+      <c r="B21">
         <v>51</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>14.5</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>3.26</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>69.61</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="G21" s="0" t="n">
+      <c r="F21">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G21">
         <v>26</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>15.48</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21">
         <v>5.88</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21">
         <v>15.2</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>-29</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21">
         <v>-0.46</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21">
         <v>130</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21">
         <v>4.72</v>
       </c>
-      <c r="P21" s="4" t="n">
-        <f aca="false">B21/$B$32</f>
-        <v>0.804416403785489</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="P21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.80441640378548895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>54.4</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>15.5</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>3.57</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>82.58</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="F22">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G22">
         <v>30</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>16</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>5.43</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22">
         <v>16.3</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>-38</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22">
         <v>-0.65</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22">
         <v>139</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22">
         <v>5.43</v>
       </c>
-      <c r="P22" s="4" t="n">
-        <f aca="false">B22/$B$32</f>
-        <v>0.858044164037855</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
-        <v>0.459027777777778</v>
-      </c>
-      <c r="B23" s="1" t="n">
+      <c r="P22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.85804416403785488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0.45902777777777798</v>
+      </c>
+      <c r="B23" s="1">
         <v>54.5</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>15.6</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>3.61</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>83.07</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="F23">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G23">
         <v>30</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="I23" s="0" t="n">
+      <c r="H23">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="I23">
         <v>5.47</v>
       </c>
-      <c r="J23" s="0" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K23" s="0" t="n">
+      <c r="J23">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K23">
         <v>-42</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23">
         <v>-0.73</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23">
         <v>143</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23">
         <v>5.61</v>
       </c>
-      <c r="P23" s="4" t="n">
-        <f aca="false">B23/$B$32</f>
-        <v>0.859621451104101</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="B24" s="0" t="n">
+      <c r="P23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.85962145110410093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B24">
         <v>57.7</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>16.5</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>3.89</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>90.72</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G24">
         <v>33</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>16.14</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24">
         <v>5.4</v>
       </c>
-      <c r="J24" s="0" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K24" s="0" t="n">
+      <c r="J24">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K24">
         <v>-48</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24">
         <v>-0.88</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24">
         <v>149</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24">
         <v>6.2</v>
       </c>
-      <c r="P24" s="4" t="n">
-        <f aca="false">B24/$B$32</f>
-        <v>0.910094637223975</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="P24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91009463722397488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>0.5</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>57.2</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>16.3</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>3.86</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>92.71</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="F25">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G25">
         <v>33</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>16.28</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25">
         <v>5.24</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25">
         <v>17.3</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25">
         <v>-48</v>
       </c>
-      <c r="L25" s="1" t="n">
+      <c r="L25" s="1">
         <v>-0.88</v>
       </c>
-      <c r="M25" s="1" t="n">
+      <c r="M25" s="1">
         <v>149</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25">
         <v>6.17</v>
       </c>
-      <c r="P25" s="4" t="n">
-        <f aca="false">B25/$B$32</f>
-        <v>0.902208201892745</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
-        <v>0.521527777777778</v>
-      </c>
-      <c r="B26" s="0" t="n">
+      <c r="P25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90220820189274453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>0.52152777777777803</v>
+      </c>
+      <c r="B26">
         <v>58.7</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>16.8</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>3.97</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>97.46</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="G26" s="0" t="n">
+      <c r="F26">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G26">
         <v>34</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>16.39</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>5.12</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26">
         <v>17.8</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>-48</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26">
         <v>-0.9</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26">
         <v>149</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26">
         <v>6.34</v>
       </c>
-      <c r="P26" s="4" t="n">
-        <f aca="false">B26/$B$32</f>
-        <v>0.925867507886435</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
-        <v>0.542361111111111</v>
-      </c>
-      <c r="B27" s="0" t="n">
+      <c r="P26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92586750788643535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.54236111111111096</v>
+      </c>
+      <c r="B27">
         <v>60.5</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>17.3</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E27" s="0" t="n">
+      <c r="D27">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E27">
         <v>103.44</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>1.17</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>36</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="I27" s="0" t="n">
+      <c r="H27">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="I27">
         <v>5.03</v>
       </c>
-      <c r="J27" s="0" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K27" s="0" t="n">
+      <c r="J27">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K27">
         <v>-52</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27">
         <v>-1.02</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27">
         <v>154</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27">
         <v>6.74</v>
       </c>
-      <c r="P27" s="4" t="n">
-        <f aca="false">B27/$B$32</f>
-        <v>0.954258675078864</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="P27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.95425867507886442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>0.5625</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>61.1</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>17.5</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E28">
         <v>106.85</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>1.18</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>36</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K28" s="0" t="n">
+      <c r="H28">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I28">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J28">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K28">
         <v>-56</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="M28" s="0" t="n">
+      <c r="L28">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="M28">
         <v>158</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28">
         <v>7.01</v>
       </c>
-      <c r="P28" s="4" t="n">
-        <f aca="false">B28/$B$32</f>
-        <v>0.963722397476341</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>0.584027777777778</v>
-      </c>
-      <c r="B29" s="0" t="n">
+      <c r="P28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9637223974763407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>0.58402777777777803</v>
+      </c>
+      <c r="B29">
         <v>63.4</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="C29">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D29">
         <v>4.47</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>118.84</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29">
         <v>1.21</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29">
         <v>41</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>16.87</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>4.47</v>
       </c>
-      <c r="J29" s="0" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K29" s="0" t="n">
+      <c r="J29">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K29">
         <v>-63</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29">
         <v>-1.29</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29">
         <v>164</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29">
         <v>7.62</v>
       </c>
-      <c r="P29" s="4" t="n">
-        <f aca="false">B29/$B$32</f>
+      <c r="P29" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
-        <v>0.602083333333333</v>
-      </c>
-      <c r="B30" s="0" t="n">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>0.60208333333333297</v>
+      </c>
+      <c r="B30">
         <v>52.4</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>15</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>3.72</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>105.06</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30">
         <v>1.21</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30">
         <v>44</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>17.13</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="J30" s="0" t="n">
+      <c r="I30">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J30">
         <v>16</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>-64</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="M30" s="0" t="n">
+      <c r="L30">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="M30">
         <v>166</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30">
         <v>6.35</v>
       </c>
-      <c r="P30" s="4" t="n">
-        <f aca="false">B30/$B$32</f>
-        <v>0.826498422712934</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="P30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82649842271293372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>63.4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
-        <f aca="false">RAW!P1</f>
+        <f>RAW!P1</f>
         <v>%VO2max</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2964,605 +3237,610 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <f aca="false">RAW!P2</f>
-        <v>0.241324921135647</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <f aca="false">RAW!L2*9</f>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>RAW!P2</f>
+        <v>0.24132492113564671</v>
+      </c>
+      <c r="B2" s="1">
+        <f>RAW!L2*9</f>
         <v>0.18</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <f aca="false">RAW!N2*4</f>
+      <c r="C2" s="1">
+        <f>RAW!N2*4</f>
         <v>4.16</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <f aca="false">RAW!P3</f>
-        <v>0.307570977917981</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <f aca="false">RAW!L3*9</f>
+      <c r="P2" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <f>RAW!P3</f>
+        <v>0.3075709779179811</v>
+      </c>
+      <c r="B3" s="1">
+        <f>RAW!L3*9</f>
         <v>0.9</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <f aca="false">RAW!N3*4</f>
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <f aca="false">RAW!P4</f>
-        <v>0.364353312302839</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <f aca="false">RAW!L4*9</f>
+      <c r="C3" s="1">
+        <f>RAW!N3*4</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f>RAW!P4</f>
+        <v>0.36435331230283913</v>
+      </c>
+      <c r="B4" s="1">
+        <f>RAW!L4*9</f>
         <v>2.88</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">RAW!N4*4</f>
+      <c r="C4" s="1">
+        <f>RAW!N4*4</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <f aca="false">RAW!P5</f>
-        <v>0.342271293375394</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <f aca="false">RAW!L5*9</f>
+      <c r="P4">
+        <v>180</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f>RAW!P5</f>
+        <v>0.3422712933753943</v>
+      </c>
+      <c r="B5" s="1">
+        <f>RAW!L5*9</f>
         <v>2.16</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">RAW!N5*4</f>
+      <c r="C5" s="1">
+        <f>RAW!N5*4</f>
         <v>3.76</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <f aca="false">RAW!P6</f>
-        <v>0.417981072555205</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <f aca="false">RAW!L6*9</f>
+      <c r="P5">
+        <f>P4*P3</f>
+        <v>1800</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f>RAW!P6</f>
+        <v>0.41798107255520506</v>
+      </c>
+      <c r="B6" s="1">
+        <f>RAW!L6*9</f>
         <v>3.6</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">RAW!N6*4</f>
+      <c r="C6" s="1">
+        <f>RAW!N6*4</f>
         <v>3.76</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <f aca="false">RAW!P7</f>
-        <v>0.438485804416404</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <f aca="false">RAW!L7*9</f>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f>RAW!P7</f>
+        <v>0.43848580441640378</v>
+      </c>
+      <c r="B7" s="1">
+        <f>RAW!L7*9</f>
         <v>3.6</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <f aca="false">RAW!N7*4</f>
+      <c r="C7" s="1">
+        <f>RAW!N7*4</f>
         <v>3.96</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <f aca="false">RAW!P8</f>
-        <v>0.493690851735016</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <f aca="false">RAW!L8*9</f>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>RAW!P8</f>
+        <v>0.49369085173501581</v>
+      </c>
+      <c r="B8" s="1">
+        <f>RAW!L8*9</f>
         <v>3.6</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">RAW!N8*4</f>
+      <c r="C8" s="1">
+        <f>RAW!N8*4</f>
         <v>4.88</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <f aca="false">RAW!P9</f>
-        <v>0.520504731861199</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <f aca="false">RAW!L9*9</f>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f>RAW!P9</f>
+        <v>0.52050473186119872</v>
+      </c>
+      <c r="B9" s="1">
+        <f>RAW!L9*9</f>
         <v>2.97</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">RAW!N9*4</f>
+      <c r="C9" s="1">
+        <f>RAW!N9*4</f>
         <v>6.08</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <f aca="false">RAW!P10</f>
-        <v>0.523659305993691</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <f aca="false">RAW!L10*9</f>
-        <v>2.43</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">RAW!N10*4</f>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f>RAW!P10</f>
+        <v>0.52365930599369093</v>
+      </c>
+      <c r="B10" s="1">
+        <f>RAW!L10*9</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <f>RAW!N10*4</f>
         <v>6.68</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <f aca="false">RAW!P11</f>
-        <v>0.566246056782334</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <f aca="false">RAW!L11*9</f>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f>RAW!P11</f>
+        <v>0.56624605678233442</v>
+      </c>
+      <c r="B11" s="1">
+        <f>RAW!L11*9</f>
         <v>2.88</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">RAW!N11*4</f>
+      <c r="C11" s="1">
+        <f>RAW!N11*4</f>
         <v>7.04</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <f aca="false">RAW!P12</f>
-        <v>0.610410094637224</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <f aca="false">RAW!L12*9</f>
-        <v>2.52</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <f aca="false">RAW!N12*4</f>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f>RAW!P12</f>
+        <v>0.61041009463722407</v>
+      </c>
+      <c r="B12" s="1">
+        <f>RAW!L12*9</f>
+        <v>2.5200000000000005</v>
+      </c>
+      <c r="C12" s="1">
+        <f>RAW!N12*4</f>
         <v>8.24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <f aca="false">RAW!P13</f>
-        <v>0.627760252365931</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <f aca="false">RAW!L13*9</f>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f>RAW!P13</f>
+        <v>0.62776025236593058</v>
+      </c>
+      <c r="B13" s="1">
+        <f>RAW!L13*9</f>
         <v>1.44</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <f aca="false">RAW!N13*4</f>
+      <c r="C13" s="1">
+        <f>RAW!N13*4</f>
         <v>9.68</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <f aca="false">RAW!P14</f>
-        <v>0.597791798107255</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <f aca="false">RAW!L14*9</f>
-        <v>0.63</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">RAW!N14*4</f>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f>RAW!P14</f>
+        <v>0.59779179810725547</v>
+      </c>
+      <c r="B14" s="1">
+        <f>RAW!L14*9</f>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="C14" s="1">
+        <f>RAW!N14*4</f>
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <f aca="false">RAW!P15</f>
-        <v>0.714511041009464</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <f aca="false">RAW!L15*9</f>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f>RAW!P15</f>
+        <v>0.71451104100946372</v>
+      </c>
+      <c r="B15" s="1">
+        <f>RAW!L15*9</f>
         <v>1.44</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <f aca="false">RAW!N15*4</f>
+      <c r="C15" s="1">
+        <f>RAW!N15*4</f>
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <f aca="false">RAW!P16</f>
-        <v>0.668769716088328</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <f aca="false">RAW!L16*9</f>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f>RAW!P16</f>
+        <v>0.66876971608832803</v>
+      </c>
+      <c r="B16" s="1">
+        <f>RAW!L16*9</f>
         <v>-0.27</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">RAW!N16*4</f>
+      <c r="C16" s="1">
+        <f>RAW!N16*4</f>
         <v>12.28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <f aca="false">RAW!P17</f>
-        <v>0.746056782334385</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <f aca="false">RAW!L17*9</f>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f>RAW!P17</f>
+        <v>0.74605678233438488</v>
+      </c>
+      <c r="B17" s="1">
+        <f>RAW!L17*9</f>
         <v>0</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <f aca="false">RAW!N17*4</f>
+      <c r="C17" s="1">
+        <f>RAW!N17*4</f>
         <v>13.32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <f aca="false">RAW!P18</f>
-        <v>0.763406940063092</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <f aca="false">RAW!L18*9</f>
-        <v>-2.7</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <f aca="false">RAW!N18*4</f>
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <f aca="false">RAW!P19</f>
-        <v>0.717665615141956</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <f aca="false">RAW!L19*9</f>
-        <v>-2.7</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <f aca="false">RAW!N19*4</f>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f>RAW!P18</f>
+        <v>0.76340694006309151</v>
+      </c>
+      <c r="B18" s="1">
+        <f>RAW!L18*9</f>
+        <v>-2.6999999999999997</v>
+      </c>
+      <c r="C18" s="1">
+        <f>RAW!N18*4</f>
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f>RAW!P19</f>
+        <v>0.71766561514195581</v>
+      </c>
+      <c r="B19" s="1">
+        <f>RAW!L19*9</f>
+        <v>-2.6999999999999997</v>
+      </c>
+      <c r="C19" s="1">
+        <f>RAW!N19*4</f>
         <v>15.72</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <f aca="false">RAW!P20</f>
-        <v>0.853312302839117</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <f aca="false">RAW!L20*9</f>
-        <v>-4.23</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <f aca="false">RAW!N20*4</f>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f>RAW!P20</f>
+        <v>0.85331230283911674</v>
+      </c>
+      <c r="B20" s="1">
+        <f>RAW!L20*9</f>
+        <v>-4.2299999999999995</v>
+      </c>
+      <c r="C20" s="1">
+        <f>RAW!N20*4</f>
         <v>19.84</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <f aca="false">RAW!P21</f>
-        <v>0.804416403785489</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <f aca="false">RAW!L21*9</f>
-        <v>-4.14</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <f aca="false">RAW!N21*4</f>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f>RAW!P21</f>
+        <v>0.80441640378548895</v>
+      </c>
+      <c r="B21" s="1">
+        <f>RAW!L21*9</f>
+        <v>-4.1400000000000006</v>
+      </c>
+      <c r="C21" s="1">
+        <f>RAW!N21*4</f>
         <v>18.88</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
-        <f aca="false">RAW!P22</f>
-        <v>0.858044164037855</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <f aca="false">RAW!L22*9</f>
-        <v>-5.85</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <f aca="false">RAW!N22*4</f>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f>RAW!P22</f>
+        <v>0.85804416403785488</v>
+      </c>
+      <c r="B22" s="1">
+        <f>RAW!L22*9</f>
+        <v>-5.8500000000000005</v>
+      </c>
+      <c r="C22" s="1">
+        <f>RAW!N22*4</f>
         <v>21.72</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <f aca="false">RAW!P23</f>
-        <v>0.859621451104101</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <f aca="false">RAW!L23*9</f>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f>RAW!P23</f>
+        <v>0.85962145110410093</v>
+      </c>
+      <c r="B23" s="1">
+        <f>RAW!L23*9</f>
         <v>-6.57</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <f aca="false">RAW!N23*4</f>
+      <c r="C23" s="1">
+        <f>RAW!N23*4</f>
         <v>22.44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <f aca="false">RAW!P24</f>
-        <v>0.910094637223975</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <f aca="false">RAW!L24*9</f>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f>RAW!P24</f>
+        <v>0.91009463722397488</v>
+      </c>
+      <c r="B24" s="1">
+        <f>RAW!L24*9</f>
         <v>-7.92</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <f aca="false">RAW!N24*4</f>
+      <c r="C24" s="1">
+        <f>RAW!N24*4</f>
         <v>24.8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <f aca="false">RAW!P25</f>
-        <v>0.902208201892744</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <f aca="false">RAW!L25*9</f>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f>RAW!P25</f>
+        <v>0.90220820189274453</v>
+      </c>
+      <c r="B25" s="1">
+        <f>RAW!L25*9</f>
         <v>-7.92</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <f aca="false">RAW!N25*4</f>
+      <c r="C25" s="1">
+        <f>RAW!N25*4</f>
         <v>24.68</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
-        <f aca="false">RAW!P26</f>
-        <v>0.925867507886435</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <f aca="false">RAW!L26*9</f>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f>RAW!P26</f>
+        <v>0.92586750788643535</v>
+      </c>
+      <c r="B26" s="1">
+        <f>RAW!L26*9</f>
         <v>-8.1</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <f aca="false">RAW!N26*4</f>
+      <c r="C26" s="1">
+        <f>RAW!N26*4</f>
         <v>25.36</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
-        <f aca="false">RAW!P27</f>
-        <v>0.954258675078864</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <f aca="false">RAW!L27*9</f>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f>RAW!P27</f>
+        <v>0.95425867507886442</v>
+      </c>
+      <c r="B27" s="1">
+        <f>RAW!L27*9</f>
         <v>-9.18</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <f aca="false">RAW!N27*4</f>
+      <c r="C27" s="1">
+        <f>RAW!N27*4</f>
         <v>26.96</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
-        <f aca="false">RAW!P28</f>
-        <v>0.963722397476341</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <f aca="false">RAW!L28*9</f>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f>RAW!P28</f>
+        <v>0.9637223974763407</v>
+      </c>
+      <c r="B28" s="1">
+        <f>RAW!L28*9</f>
         <v>-9.99</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <f aca="false">RAW!N28*4</f>
+      <c r="C28" s="1">
+        <f>RAW!N28*4</f>
         <v>28.04</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
-        <f aca="false">RAW!P29</f>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f>RAW!P29</f>
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <f aca="false">RAW!L29*9</f>
+      <c r="B29" s="1">
+        <f>RAW!L29*9</f>
         <v>-11.61</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <f aca="false">RAW!N29*4</f>
+      <c r="C29" s="1">
+        <f>RAW!N29*4</f>
         <v>30.48</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
-        <f aca="false">RAW!P30</f>
-        <v>0.826498422712934</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <f aca="false">RAW!L30*9</f>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f>RAW!P30</f>
+        <v>0.82649842271293372</v>
+      </c>
+      <c r="B30" s="1">
+        <f>RAW!L30*9</f>
         <v>-9.81</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <f aca="false">RAW!N30*4</f>
+      <c r="C30" s="1">
+        <f>RAW!N30*4</f>
         <v>25.4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="str">
-        <f aca="false">RAW!P1</f>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>RAW!P1</f>
         <v>%VO2max</v>
       </c>
-      <c r="B1" s="0" t="str">
-        <f aca="false">RAW!L1</f>
+      <c r="B1" t="str">
+        <f>RAW!L1</f>
         <v>FATmin</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
-        <f aca="false">RAW!P2</f>
-        <v>0.241324921135647</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">RAW!L2</f>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <f>RAW!P2</f>
+        <v>0.24132492113564671</v>
+      </c>
+      <c r="B2">
+        <f>RAW!L2</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
-        <f aca="false">RAW!P3</f>
-        <v>0.307570977917981</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">RAW!L3</f>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <f>RAW!P3</f>
+        <v>0.3075709779179811</v>
+      </c>
+      <c r="B3">
+        <f>RAW!L3</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
-        <f aca="false">RAW!P4</f>
-        <v>0.364353312302839</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">RAW!L4</f>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <f>RAW!P4</f>
+        <v>0.36435331230283913</v>
+      </c>
+      <c r="B4">
+        <f>RAW!L4</f>
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
-        <f aca="false">RAW!P5</f>
-        <v>0.342271293375394</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">RAW!L5</f>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <f>RAW!P5</f>
+        <v>0.3422712933753943</v>
+      </c>
+      <c r="B5">
+        <f>RAW!L5</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
-        <f aca="false">RAW!P6</f>
-        <v>0.417981072555205</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">RAW!L6</f>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <f>RAW!P6</f>
+        <v>0.41798107255520506</v>
+      </c>
+      <c r="B6">
+        <f>RAW!L6</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
-        <f aca="false">RAW!P7</f>
-        <v>0.438485804416404</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">RAW!L7</f>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <f>RAW!P7</f>
+        <v>0.43848580441640378</v>
+      </c>
+      <c r="B7">
+        <f>RAW!L7</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
-        <f aca="false">RAW!P8</f>
-        <v>0.493690851735016</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">RAW!L8</f>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <f>RAW!P8</f>
+        <v>0.49369085173501581</v>
+      </c>
+      <c r="B8">
+        <f>RAW!L8</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
-        <f aca="false">RAW!P9</f>
-        <v>0.520504731861199</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">RAW!L9</f>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <f>RAW!P9</f>
+        <v>0.52050473186119872</v>
+      </c>
+      <c r="B9">
+        <f>RAW!L9</f>
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
-        <f aca="false">RAW!P10</f>
-        <v>0.523659305993691</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">RAW!L10</f>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <f>RAW!P10</f>
+        <v>0.52365930599369093</v>
+      </c>
+      <c r="B10">
+        <f>RAW!L10</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
-        <f aca="false">RAW!P11</f>
-        <v>0.566246056782334</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">RAW!L11</f>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <f>RAW!P11</f>
+        <v>0.56624605678233442</v>
+      </c>
+      <c r="B11">
+        <f>RAW!L11</f>
         <v>0.32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
-        <f aca="false">RAW!P12</f>
-        <v>0.610410094637224</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <f aca="false">RAW!L12</f>
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
-        <f aca="false">RAW!P13</f>
-        <v>0.627760252365931</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <f aca="false">RAW!L13</f>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <f>RAW!P12</f>
+        <v>0.61041009463722407</v>
+      </c>
+      <c r="B12">
+        <f>RAW!L12</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <f>RAW!P13</f>
+        <v>0.62776025236593058</v>
+      </c>
+      <c r="B13">
+        <f>RAW!L13</f>
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
-        <f aca="false">RAW!P14</f>
-        <v>0.597791798107255</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <f aca="false">RAW!L14</f>
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
-        <f aca="false">RAW!P15</f>
-        <v>0.714511041009464</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <f aca="false">RAW!L15</f>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>RAW!P14</f>
+        <v>0.59779179810725547</v>
+      </c>
+      <c r="B14">
+        <f>RAW!L14</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>RAW!P15</f>
+        <v>0.71451104100946372</v>
+      </c>
+      <c r="B15">
+        <f>RAW!L15</f>
         <v>0.16</v>
       </c>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>